--- a/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
+++ b/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariegutgesell/Desktop/Wild Foods Repo/data/Foods_From_Forests_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C617A0-91D3-E541-80B7-B41327B57022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96811A3-8589-9544-A936-236CA2EEA65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="3" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21140" windowHeight="16520" activeTab="6" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
   </bookViews>
   <sheets>
     <sheet name="Anadromous" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Terrestrial" sheetId="4" r:id="rId4"/>
     <sheet name="Summary" sheetId="5" r:id="rId5"/>
     <sheet name="Resource_Category" sheetId="7" r:id="rId6"/>
-    <sheet name="Terrestrial group" sheetId="6" r:id="rId7"/>
+    <sheet name="Resource_List" sheetId="8" r:id="rId7"/>
+    <sheet name="Terrestrial group" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="103">
   <si>
     <t>Nearshore</t>
   </si>
@@ -164,12 +165,6 @@
     <t>2022 population is minus group quarters</t>
   </si>
   <si>
-    <t>Total Marine</t>
-  </si>
-  <si>
-    <t>Total terrestrial</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -356,10 +351,10 @@
     <t>Estimated_total_lb</t>
   </si>
   <si>
-    <t>202_population</t>
-  </si>
-  <si>
     <t>Resource_Group</t>
+  </si>
+  <si>
+    <t>Resource_Name</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1681,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1704,16 +1699,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>38</v>
@@ -1722,304 +1717,304 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C2" s="3">
-        <v>98.811927400000016</v>
-      </c>
-      <c r="D2">
-        <v>629</v>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D2" s="9">
+        <v>340</v>
       </c>
       <c r="E2">
         <f>D2*C2</f>
-        <v>62152.702334600013</v>
+        <v>12851.999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C3" s="3">
-        <v>32.480214500000002</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2059</v>
+        <v>75.97</v>
+      </c>
+      <c r="D3">
+        <v>201</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">D3*C3</f>
-        <v>66876.761655499999</v>
+        <f>D3*C3</f>
+        <v>15269.97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C4" s="3">
-        <v>29.13</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2</v>
+        <v>71.27</v>
+      </c>
+      <c r="D4">
+        <v>970</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>58.26</v>
+        <f>D4*C4</f>
+        <v>69131.899999999994</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="C5" s="3">
-        <v>58.9</v>
-      </c>
-      <c r="D5" s="9">
-        <v>84</v>
+        <v>60.449999999999996</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4947.5999999999995</v>
+        <f>D5*C5</f>
+        <v>2538.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C6" s="3">
-        <v>69.39</v>
+        <v>91.17</v>
       </c>
       <c r="D6" s="9">
-        <v>449</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>31156.11</v>
+        <f>D6*C6</f>
+        <v>3464.46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="C7" s="3">
-        <v>62.78</v>
+        <v>43.91</v>
       </c>
       <c r="D7" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>7910.28</v>
+        <f>D7*C7</f>
+        <v>790.37999999999988</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1987</v>
       </c>
       <c r="C8" s="3">
-        <v>23.240000000000002</v>
+        <v>68.66</v>
       </c>
       <c r="D8" s="9">
-        <v>1042</v>
+        <v>657</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>24216.080000000002</v>
+        <f>D8*C8</f>
+        <v>45109.619999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C9" s="3">
-        <v>47.245506229999997</v>
+        <v>64.600000000000009</v>
       </c>
       <c r="D9" s="9">
-        <v>7971</v>
+        <v>1974</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>376593.93015932996</v>
+        <f>D9*C9</f>
+        <v>127520.40000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C10" s="3">
-        <v>85.926483599999997</v>
+        <v>43.29</v>
       </c>
       <c r="D10" s="9">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>30589.828161599999</v>
+        <f>D10*C10</f>
+        <v>6017.3099999999995</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="C11" s="3">
-        <v>98.91</v>
+        <v>76.100000000000009</v>
       </c>
       <c r="D11" s="9">
-        <v>10</v>
+        <v>906</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>989.09999999999991</v>
+        <f>D11*C11</f>
+        <v>68946.600000000006</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="C12" s="3">
-        <v>78.54000000000002</v>
+        <v>218.4</v>
       </c>
       <c r="D12" s="9">
-        <v>33</v>
+        <v>347</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>2591.8200000000006</v>
+        <f>D12*C12</f>
+        <v>75784.800000000003</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1987</v>
       </c>
       <c r="C13" s="3">
-        <v>77.84</v>
+        <v>145.03</v>
       </c>
       <c r="D13" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>4436.88</v>
+        <f>D13*C13</f>
+        <v>6671.38</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C14" s="3">
-        <v>63.89171726</v>
+        <v>45.870000000000005</v>
       </c>
       <c r="D14" s="9">
-        <v>2822</v>
+        <v>530</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>180302.42610772001</v>
+        <f>D14*C14</f>
+        <v>24311.100000000002</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1987</v>
-      </c>
-      <c r="C15" s="3">
-        <v>85.95</v>
-      </c>
-      <c r="D15">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>97.42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>49</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>6102.45</v>
+        <f>D15*C15</f>
+        <v>4773.58</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C16" s="3">
-        <v>57.690000000000005</v>
-      </c>
-      <c r="D16">
-        <v>131</v>
+        <v>112.14999999999999</v>
+      </c>
+      <c r="D16" s="9">
+        <v>691</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>7557.39</v>
+        <f>D16*C16</f>
+        <v>77495.649999999994</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>1987</v>
+        <v>2014</v>
       </c>
       <c r="C17" s="3">
-        <v>146.22999999999999</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
+        <v>393.13151000000005</v>
+      </c>
+      <c r="D17">
+        <v>86</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D17*C17</f>
+        <v>33809.309860000001</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -2038,7 +2033,7 @@
         <v>1436</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>D18*C18</f>
         <v>31821.759999999998</v>
       </c>
       <c r="H18" s="8"/>
@@ -2046,322 +2041,325 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2014</v>
+        <v>1987</v>
       </c>
       <c r="C19" s="3">
-        <v>393.13151000000005</v>
-      </c>
-      <c r="D19">
-        <v>86</v>
+        <v>146.22999999999999</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>33809.309860000001</v>
+        <f>D19*C19</f>
+        <v>0</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C20" s="3">
-        <v>112.14999999999999</v>
-      </c>
-      <c r="D20" s="9">
-        <v>691</v>
+        <v>57.690000000000005</v>
+      </c>
+      <c r="D20">
+        <v>131</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>77495.649999999994</v>
+        <f>D20*C20</f>
+        <v>7557.39</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C21" s="2">
-        <v>97.42</v>
-      </c>
-      <c r="D21" s="2">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>1987</v>
+      </c>
+      <c r="C21" s="3">
+        <v>85.95</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>4773.58</v>
+        <f>D21*C21</f>
+        <v>6102.45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C22" s="3">
-        <v>45.870000000000005</v>
+        <v>63.89171726</v>
       </c>
       <c r="D22" s="9">
-        <v>530</v>
+        <v>2822</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>24311.100000000002</v>
+        <f>D22*C22</f>
+        <v>180302.42610772001</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="C23" s="3">
-        <v>145.03</v>
+        <v>98.91</v>
       </c>
       <c r="D23" s="9">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>6671.38</v>
+        <f>D23*C23</f>
+        <v>989.09999999999991</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>2012</v>
+        <v>1987</v>
       </c>
       <c r="C24" s="3">
-        <v>218.4</v>
+        <v>77.84</v>
       </c>
       <c r="D24" s="9">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>75784.800000000003</v>
+        <f>D24*C24</f>
+        <v>4436.88</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="C25" s="3">
-        <v>76.100000000000009</v>
+        <v>78.54000000000002</v>
       </c>
       <c r="D25" s="9">
-        <v>906</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>68946.600000000006</v>
+        <f>D25*C25</f>
+        <v>2591.8200000000006</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C26" s="3">
-        <v>43.29</v>
+        <v>85.926483599999997</v>
       </c>
       <c r="D26" s="9">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>6017.3099999999995</v>
+        <f>D26*C26</f>
+        <v>30589.828161599999</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C27" s="3">
-        <v>64.600000000000009</v>
+        <v>47.245506229999997</v>
       </c>
       <c r="D27" s="9">
-        <v>1974</v>
+        <v>7971</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>127520.40000000002</v>
+        <f>D27*C27</f>
+        <v>376593.93015932996</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>1987</v>
       </c>
       <c r="C28" s="3">
-        <v>68.66</v>
+        <v>23.240000000000002</v>
       </c>
       <c r="D28" s="9">
-        <v>657</v>
+        <v>1042</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>45109.619999999995</v>
+        <f>D28*C28</f>
+        <v>24216.080000000002</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="C29" s="3">
-        <v>43.91</v>
+        <v>62.78</v>
       </c>
       <c r="D29" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>790.37999999999988</v>
+        <f>D29*C29</f>
+        <v>7910.28</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="C30" s="3">
-        <v>91.17</v>
+        <v>69.39</v>
       </c>
       <c r="D30" s="9">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>3464.46</v>
+        <f>D30*C30</f>
+        <v>31156.11</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C31" s="3">
-        <v>60.449999999999996</v>
-      </c>
-      <c r="D31">
-        <v>42</v>
+        <v>32.480214500000002</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2059</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>2538.8999999999996</v>
+        <f>D31*C31</f>
+        <v>66876.761655499999</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="C32" s="3">
-        <v>71.27</v>
-      </c>
-      <c r="D32">
-        <v>970</v>
+        <v>58.9</v>
+      </c>
+      <c r="D32" s="9">
+        <v>84</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>69131.899999999994</v>
+        <f>D32*C32</f>
+        <v>4947.5999999999995</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C33" s="3">
-        <v>75.97</v>
-      </c>
-      <c r="D33">
-        <v>201</v>
+        <v>29.13</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>15269.97</v>
+        <f>D33*C33</f>
+        <v>58.26</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C34" s="3">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="D34" s="9">
-        <v>340</v>
+        <v>98.811927400000016</v>
+      </c>
+      <c r="D34">
+        <v>629</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>12851.999999999998</v>
+        <f>D34*C34</f>
+        <v>62152.702334600013</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2388,16 +2386,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3007,7 +3005,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3024,16 +3022,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3631,9 +3629,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3644,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7922C761-BF90-4EBD-B988-54067522B6FF}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3664,16 +3660,16 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4278,13 +4274,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35">
-        <f>SUM(E2:E34)</f>
-        <v>1051483.5383057739</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4314,19 +4304,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -4334,23 +4324,23 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10">
         <f>Anadromous!E35</f>
         <v>0</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4362,16 +4352,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4383,16 +4373,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4401,52 +4391,52 @@
       </c>
       <c r="B5" s="10">
         <f>Terrestrial!E35</f>
-        <v>1051483.5383057739</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="10">
         <f>SUM(B2:B5)</f>
-        <v>1051483.5383057739</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="16">
         <f>B6*0.454</f>
-        <v>477373.52639082132</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4454,127 +4444,127 @@
         <v>30000</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>B7/B8</f>
-        <v>15.912450879694044</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>212011.37049799997</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>23020.094800620001</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>786488.15449599992</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>26866.51547893</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>3097.4030322240001</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="5">
         <v>1051483.5383057741</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <f>B17*0.454</f>
@@ -4592,24 +4582,24 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>212011.37049799997</v>
@@ -4628,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>23020.094800620001</v>
@@ -4639,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>786488.15449599992</v>
@@ -4650,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>26866.51547893</v>
@@ -4661,7 +4651,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>3097.4030322240001</v>
@@ -4669,34 +4659,34 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4704,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4712,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4720,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4728,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4736,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4744,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4752,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4760,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4768,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4776,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4784,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4792,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4800,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4808,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4816,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4824,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4832,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4840,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4848,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4856,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4864,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4872,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4880,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4888,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4896,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4904,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -4912,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4920,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4928,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4936,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4944,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4953,6 +4943,349 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98C8E8-8A1F-7B41-A4C8-235CE5DB550D}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113032B1-A697-4F2D-883F-8A52270D86BF}">
   <dimension ref="A1:K199"/>
   <sheetViews>
@@ -4978,22 +5311,22 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5004,14 +5337,14 @@
         <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(F3:F7)</f>
         <v>43063.963244500002</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5019,7 +5352,7 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>47.999195</v>
@@ -5029,7 +5362,7 @@
         <v>30191.493654999998</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5037,7 +5370,7 @@
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>1.4462649999999999</v>
@@ -5047,7 +5380,7 @@
         <v>909.70068499999991</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5055,7 +5388,7 @@
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>3.9842281000000002</v>
@@ -5065,7 +5398,7 @@
         <v>2506.0794749000002</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5073,7 +5406,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>14.165345</v>
@@ -5083,7 +5416,7 @@
         <v>8910.0020050000003</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5091,7 +5424,7 @@
         <v>2015</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>0.86913739999999995</v>
@@ -5101,7 +5434,7 @@
         <v>546.68742459999999</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5112,14 +5445,14 @@
         <v>2059</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5">
         <f>SUM(F9:F13)</f>
         <v>99117.45883345</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5127,7 +5460,7 @@
         <v>2000</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>38.902724999999997</v>
@@ -5137,7 +5470,7 @@
         <v>80100.710775</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5145,7 +5478,7 @@
         <v>2000</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5155,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,7 +5496,7 @@
         <v>2000</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>1.4362645999999999</v>
@@ -5173,7 +5506,7 @@
         <v>2957.2688113999998</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5181,7 +5514,7 @@
         <v>2000</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>7.3054475999999999</v>
@@ -5191,7 +5524,7 @@
         <v>15041.916608399999</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5199,7 +5532,7 @@
         <v>2000</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>0.49420235000000001</v>
@@ -5209,7 +5542,7 @@
         <v>1017.5626386500001</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5220,14 +5553,14 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="5">
         <f>SUM(F15:F19)</f>
         <v>127.27999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5235,7 +5568,7 @@
         <v>1996</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>56.87</v>
@@ -5245,7 +5578,7 @@
         <v>113.74</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5253,7 +5586,7 @@
         <v>1996</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5263,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5271,7 +5604,7 @@
         <v>1996</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>1.37</v>
@@ -5281,7 +5614,7 @@
         <v>2.74</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5289,7 +5622,7 @@
         <v>1996</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>4.76</v>
@@ -5299,7 +5632,7 @@
         <v>9.52</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,7 +5640,7 @@
         <v>1996</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>0.64</v>
@@ -5317,7 +5650,7 @@
         <v>1.28</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -5328,14 +5661,14 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5">
         <f>SUM(F21:F25)</f>
         <v>8047.2</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5343,7 +5676,7 @@
         <v>2012</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>79.7</v>
@@ -5353,7 +5686,7 @@
         <v>6694.8</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5361,7 +5694,7 @@
         <v>2012</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>0.1</v>
@@ -5371,13 +5704,13 @@
         <v>8.4</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
         <v>89</v>
-      </c>
-      <c r="K22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,7 +5718,7 @@
         <v>2012</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -5395,10 +5728,10 @@
         <v>1092</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23">
         <v>212011.37049799997</v>
@@ -5409,7 +5742,7 @@
         <v>2012</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>1.6</v>
@@ -5419,10 +5752,10 @@
         <v>134.4</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K24">
         <v>23020.094800620001</v>
@@ -5433,7 +5766,7 @@
         <v>2012</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>1.4</v>
@@ -5443,10 +5776,10 @@
         <v>117.6</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25">
         <v>786488.15449599992</v>
@@ -5460,17 +5793,17 @@
         <v>449</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="5">
         <f>SUM(F27:F31)</f>
         <v>19055.560000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>26866.51547893</v>
@@ -5481,7 +5814,7 @@
         <v>1998</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>36.090000000000003</v>
@@ -5491,10 +5824,10 @@
         <v>16204.410000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K27">
         <v>3097.4030322240001</v>
@@ -5505,7 +5838,7 @@
         <v>1998</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5515,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>1051483.5383057741</v>
@@ -5529,7 +5862,7 @@
         <v>1998</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0.69</v>
@@ -5539,10 +5872,10 @@
         <v>309.81</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K29">
         <v>2102967.0766115477</v>
@@ -5553,7 +5886,7 @@
         <v>1998</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E30">
         <v>4.68</v>
@@ -5563,7 +5896,7 @@
         <v>2101.3199999999997</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,7 +5904,7 @@
         <v>1998</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0.98</v>
@@ -5581,7 +5914,7 @@
         <v>440.02</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -5592,14 +5925,14 @@
         <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="5">
         <f>SUM(F33:F37)</f>
         <v>18437.580000000002</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5607,7 +5940,7 @@
         <v>1987</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E33">
         <v>135.47999999999999</v>
@@ -5617,7 +5950,7 @@
         <v>17070.48</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5625,7 +5958,7 @@
         <v>1987</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5635,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5643,7 +5976,7 @@
         <v>1987</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>2.08</v>
@@ -5653,7 +5986,7 @@
         <v>262.08</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5661,7 +5994,7 @@
         <v>1987</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>7.58</v>
@@ -5671,7 +6004,7 @@
         <v>955.08</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5679,7 +6012,7 @@
         <v>1987</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>1.19</v>
@@ -5689,7 +6022,7 @@
         <v>149.94</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5700,14 +6033,14 @@
         <v>1042</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="5">
         <f>SUM(F39:F43)</f>
         <v>5668.48</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5715,7 +6048,7 @@
         <v>1987</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>3.64</v>
@@ -5725,7 +6058,7 @@
         <v>3792.88</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5733,7 +6066,7 @@
         <v>1987</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5743,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5751,7 +6084,7 @@
         <v>1987</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>0.36</v>
@@ -5761,7 +6094,7 @@
         <v>375.12</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5769,7 +6102,7 @@
         <v>1987</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>1.42</v>
@@ -5779,7 +6112,7 @@
         <v>1479.6399999999999</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5787,7 +6120,7 @@
         <v>1987</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E43">
         <v>0.02</v>
@@ -5797,7 +6130,7 @@
         <v>20.84</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5808,14 +6141,14 @@
         <v>7971</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="5">
         <f>SUM(F45:F49)</f>
         <v>291127.72360344004</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5823,7 +6156,7 @@
         <v>2013</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45">
         <v>25.822120000000002</v>
@@ -5833,7 +6166,7 @@
         <v>205828.11852000002</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5841,7 +6174,7 @@
         <v>2013</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46">
         <v>0.13423280000000001</v>
@@ -5851,7 +6184,7 @@
         <v>1069.9696488000002</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5859,7 +6192,7 @@
         <v>2013</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E47">
         <v>0.46928283999999998</v>
@@ -5869,7 +6202,7 @@
         <v>3740.6535176399998</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5877,7 +6210,7 @@
         <v>2013</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>9.3775700000000004</v>
@@ -5887,7 +6220,7 @@
         <v>74748.61047</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5895,7 +6228,7 @@
         <v>2013</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E49">
         <v>0.72015700000000005</v>
@@ -5905,7 +6238,7 @@
         <v>5740.3714470000004</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -5916,14 +6249,14 @@
         <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F50" s="5">
         <f>SUM(F51:F55)</f>
         <v>16833.116945583999</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5931,7 +6264,7 @@
         <v>1999</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>28.972221000000001</v>
@@ -5941,7 +6274,7 @@
         <v>10314.110676</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5949,7 +6282,7 @@
         <v>1999</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>3.9682540000000001E-3</v>
@@ -5959,7 +6292,7 @@
         <v>1.412698424</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5967,7 +6300,7 @@
         <v>1999</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>0.13519840999999999</v>
@@ -5977,7 +6310,7 @@
         <v>48.130633959999997</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5985,7 +6318,7 @@
         <v>1999</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>13.952133</v>
@@ -5995,7 +6328,7 @@
         <v>4966.9593480000003</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6003,7 +6336,7 @@
         <v>1999</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>4.2205157</v>
@@ -6013,7 +6346,7 @@
         <v>1502.5035892000001</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -6024,14 +6357,14 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F56" s="5">
         <f>SUM(F57:F61)</f>
         <v>592.1</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6039,7 +6372,7 @@
         <v>1996</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <v>47.45</v>
@@ -6049,7 +6382,7 @@
         <v>474.5</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6057,7 +6390,7 @@
         <v>1996</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6067,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6075,7 +6408,7 @@
         <v>1996</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6085,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6093,7 +6426,7 @@
         <v>1996</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E60">
         <v>10.5</v>
@@ -6103,7 +6436,7 @@
         <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6111,7 +6444,7 @@
         <v>1996</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E61">
         <v>1.26</v>
@@ -6121,7 +6454,7 @@
         <v>12.6</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -6132,14 +6465,14 @@
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F62" s="5">
         <f>SUM(F63:F67)</f>
         <v>4263.6000000000004</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6147,7 +6480,7 @@
         <v>1996</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E63">
         <v>101.08</v>
@@ -6157,7 +6490,7 @@
         <v>3335.64</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6165,7 +6498,7 @@
         <v>1996</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6175,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6183,7 +6516,7 @@
         <v>1996</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <v>1.78</v>
@@ -6193,7 +6526,7 @@
         <v>58.74</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6201,7 +6534,7 @@
         <v>1996</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <v>21.4</v>
@@ -6211,7 +6544,7 @@
         <v>706.19999999999993</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6219,7 +6552,7 @@
         <v>1996</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E67">
         <v>4.9400000000000004</v>
@@ -6229,7 +6562,7 @@
         <v>163.02000000000001</v>
       </c>
       <c r="G67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -6240,14 +6573,14 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F68" s="5">
         <f>SUM(F69:F73)</f>
         <v>7656.2400000000007</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6255,7 +6588,7 @@
         <v>1987</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E69">
         <v>108.43</v>
@@ -6265,7 +6598,7 @@
         <v>6180.51</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6273,7 +6606,7 @@
         <v>1987</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6283,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6291,7 +6624,7 @@
         <v>1987</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E71">
         <v>1.27</v>
@@ -6301,7 +6634,7 @@
         <v>72.39</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6309,7 +6642,7 @@
         <v>1987</v>
       </c>
       <c r="D72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E72">
         <v>15.94</v>
@@ -6319,7 +6652,7 @@
         <v>908.57999999999993</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6327,7 +6660,7 @@
         <v>1987</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E73">
         <v>8.68</v>
@@ -6337,7 +6670,7 @@
         <v>494.76</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -6348,14 +6681,14 @@
         <v>2822</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F74" s="5">
         <f>SUM(F75:F79)</f>
         <v>61429.610653000003</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6363,7 +6696,7 @@
         <v>2000</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E75">
         <v>17.267443</v>
@@ -6373,7 +6706,7 @@
         <v>48728.724146</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6381,7 +6714,7 @@
         <v>2000</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6391,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6399,7 +6732,7 @@
         <v>2000</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E77">
         <v>0.67406975999999996</v>
@@ -6409,7 +6742,7 @@
         <v>1902.2248627199999</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6417,7 +6750,7 @@
         <v>2000</v>
       </c>
       <c r="D78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E78">
         <v>3.6693313000000001</v>
@@ -6427,7 +6760,7 @@
         <v>10354.852928599999</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6435,7 +6768,7 @@
         <v>2000</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E79">
         <v>0.15726744000000001</v>
@@ -6445,7 +6778,7 @@
         <v>443.80871568000003</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -6456,14 +6789,14 @@
         <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F80" s="5">
         <f>SUM(F81:F85)</f>
         <v>8506.51</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6471,7 +6804,7 @@
         <v>1987</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E81">
         <v>110.94</v>
@@ -6481,7 +6814,7 @@
         <v>7876.74</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6489,7 +6822,7 @@
         <v>1987</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6499,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6507,7 +6840,7 @@
         <v>1987</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E83">
         <v>1.41</v>
@@ -6517,7 +6850,7 @@
         <v>100.11</v>
       </c>
       <c r="G83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6525,7 +6858,7 @@
         <v>1987</v>
       </c>
       <c r="D84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E84">
         <v>6.8</v>
@@ -6535,7 +6868,7 @@
         <v>482.8</v>
       </c>
       <c r="G84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6543,7 +6876,7 @@
         <v>1987</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E85">
         <v>0.66</v>
@@ -6553,7 +6886,7 @@
         <v>46.86</v>
       </c>
       <c r="G85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -6564,14 +6897,14 @@
         <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F86" s="5">
         <f>SUM(F87:F91)</f>
         <v>8351.25</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6579,7 +6912,7 @@
         <v>1998</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E87">
         <v>50.63</v>
@@ -6589,7 +6922,7 @@
         <v>6632.5300000000007</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6597,7 +6930,7 @@
         <v>1998</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E88">
         <v>0.08</v>
@@ -6607,7 +6940,7 @@
         <v>10.48</v>
       </c>
       <c r="G88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6615,7 +6948,7 @@
         <v>1998</v>
       </c>
       <c r="D89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -6625,7 +6958,7 @@
         <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6633,7 +6966,7 @@
         <v>1998</v>
       </c>
       <c r="D90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E90">
         <v>7.9</v>
@@ -6643,7 +6976,7 @@
         <v>1034.9000000000001</v>
       </c>
       <c r="G90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6651,7 +6984,7 @@
         <v>1998</v>
       </c>
       <c r="D91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E91">
         <v>3.14</v>
@@ -6661,7 +6994,7 @@
         <v>411.34000000000003</v>
       </c>
       <c r="G91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -6672,14 +7005,14 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F92" s="5">
         <f>SUM(F93:F97)</f>
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6687,7 +7020,7 @@
         <v>1987</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E93">
         <v>48</v>
@@ -6697,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6705,7 +7038,7 @@
         <v>1987</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6715,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6723,7 +7056,7 @@
         <v>1987</v>
       </c>
       <c r="D95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6733,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6741,7 +7074,7 @@
         <v>1987</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E96">
         <v>10.83</v>
@@ -6751,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6759,7 +7092,7 @@
         <v>1987</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <v>3.5</v>
@@ -6769,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6780,14 +7113,14 @@
         <v>1436</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F98" s="5">
         <f>SUM(F99:F103)</f>
         <v>19788.079999999998</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6795,7 +7128,7 @@
         <v>1987</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E99" s="11">
         <v>10.77</v>
@@ -6805,7 +7138,7 @@
         <v>15465.72</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6813,7 +7146,7 @@
         <v>1987</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E100" s="11">
         <v>0</v>
@@ -6823,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6831,7 +7164,7 @@
         <v>1987</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E101" s="11">
         <v>1.19</v>
@@ -6841,7 +7174,7 @@
         <v>1708.84</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6849,7 +7182,7 @@
         <v>1987</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E102" s="11">
         <v>1.79</v>
@@ -6859,7 +7192,7 @@
         <v>2570.44</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6867,7 +7200,7 @@
         <v>1987</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E103" s="11">
         <v>0.03</v>
@@ -6877,7 +7210,7 @@
         <v>43.08</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -6888,14 +7221,14 @@
         <v>86</v>
       </c>
       <c r="D104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F104" s="5">
         <f>SUM(F105:F109)</f>
         <v>3365.8250258000003</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6903,7 +7236,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E105">
         <v>26.208334000000001</v>
@@ -6913,7 +7246,7 @@
         <v>2253.9167240000002</v>
       </c>
       <c r="G105" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6921,7 +7254,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6931,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6939,7 +7272,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E107">
         <v>0.73124999999999996</v>
@@ -6949,7 +7282,7 @@
         <v>62.887499999999996</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6957,7 +7290,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E108">
         <v>11.677083</v>
@@ -6967,7 +7300,7 @@
         <v>1004.2291379999999</v>
       </c>
       <c r="G108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6975,7 +7308,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E109">
         <v>0.52083330000000005</v>
@@ -6985,7 +7318,7 @@
         <v>44.791663800000002</v>
       </c>
       <c r="G109" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -6996,14 +7329,14 @@
         <v>691</v>
       </c>
       <c r="D110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F110" s="5">
         <f>SUM(F111:F115)</f>
         <v>50532.83</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7011,7 +7344,7 @@
         <v>1997</v>
       </c>
       <c r="D111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E111">
         <v>53.53</v>
@@ -7021,7 +7354,7 @@
         <v>36989.230000000003</v>
       </c>
       <c r="G111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7029,7 +7362,7 @@
         <v>1997</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -7039,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7047,7 +7380,7 @@
         <v>1997</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E113">
         <v>1.1100000000000001</v>
@@ -7057,7 +7390,7 @@
         <v>767.0100000000001</v>
       </c>
       <c r="G113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7065,7 +7398,7 @@
         <v>1997</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E114">
         <v>13.6</v>
@@ -7075,7 +7408,7 @@
         <v>9397.6</v>
       </c>
       <c r="G114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7083,7 +7416,7 @@
         <v>1997</v>
       </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E115">
         <v>4.8899999999999997</v>
@@ -7093,7 +7426,7 @@
         <v>3378.99</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -7104,14 +7437,14 @@
         <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F116" s="5">
         <f>SUM(F117:F121)</f>
         <v>4283.5800000000008</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7119,7 +7452,7 @@
         <v>1998</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E117" s="11">
         <v>69.94</v>
@@ -7129,7 +7462,7 @@
         <v>3427.06</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7137,7 +7470,7 @@
         <v>1998</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E118" s="11">
         <v>0</v>
@@ -7147,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7155,7 +7488,7 @@
         <v>1998</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E119" s="11">
         <v>0.06</v>
@@ -7165,7 +7498,7 @@
         <v>2.94</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7173,7 +7506,7 @@
         <v>1998</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E120" s="11">
         <v>15.31</v>
@@ -7183,7 +7516,7 @@
         <v>750.19</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7191,7 +7524,7 @@
         <v>1998</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E121" s="11">
         <v>2.11</v>
@@ -7201,7 +7534,7 @@
         <v>103.39</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -7212,14 +7545,14 @@
         <v>530</v>
       </c>
       <c r="D122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F122" s="5">
         <f>SUM(F123:F127)</f>
         <v>31243.5</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -7227,7 +7560,7 @@
         <v>1996</v>
       </c>
       <c r="D123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E123">
         <v>52.04</v>
@@ -7237,7 +7570,7 @@
         <v>27581.200000000001</v>
       </c>
       <c r="G123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7245,7 +7578,7 @@
         <v>1996</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -7255,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7263,7 +7596,7 @@
         <v>1996</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E125">
         <v>0.66</v>
@@ -7273,7 +7606,7 @@
         <v>349.8</v>
       </c>
       <c r="G125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7281,7 +7614,7 @@
         <v>1996</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E126">
         <v>5.83</v>
@@ -7291,7 +7624,7 @@
         <v>3089.9</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7299,7 +7632,7 @@
         <v>1996</v>
       </c>
       <c r="D127" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E127">
         <v>0.42</v>
@@ -7309,7 +7642,7 @@
         <v>222.6</v>
       </c>
       <c r="G127" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -7320,14 +7653,14 @@
         <v>46</v>
       </c>
       <c r="D128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F128" s="5">
         <f>SUM(F129:F133)</f>
         <v>2046.54</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7335,7 +7668,7 @@
         <v>1987</v>
       </c>
       <c r="D129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E129">
         <v>32.200000000000003</v>
@@ -7345,7 +7678,7 @@
         <v>1481.2</v>
       </c>
       <c r="G129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7353,7 +7686,7 @@
         <v>1987</v>
       </c>
       <c r="D130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -7363,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7371,7 +7704,7 @@
         <v>1987</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E131">
         <v>5.78</v>
@@ -7381,7 +7714,7 @@
         <v>265.88</v>
       </c>
       <c r="G131" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7389,7 +7722,7 @@
         <v>1987</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E132">
         <v>6.51</v>
@@ -7399,7 +7732,7 @@
         <v>299.45999999999998</v>
       </c>
       <c r="G132" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7407,7 +7740,7 @@
         <v>1987</v>
       </c>
       <c r="D133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7417,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -7428,14 +7761,14 @@
         <v>347</v>
       </c>
       <c r="D134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F134" s="5">
         <f>SUM(F135:F139)</f>
         <v>29737.899999999998</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7443,7 +7776,7 @@
         <v>2012</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E135">
         <v>68.099999999999994</v>
@@ -7453,7 +7786,7 @@
         <v>23630.699999999997</v>
       </c>
       <c r="G135" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7461,7 +7794,7 @@
         <v>2012</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -7471,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7479,7 +7812,7 @@
         <v>2012</v>
       </c>
       <c r="D137" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E137">
         <v>0.4</v>
@@ -7489,7 +7822,7 @@
         <v>138.80000000000001</v>
       </c>
       <c r="G137" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7497,7 +7830,7 @@
         <v>2012</v>
       </c>
       <c r="D138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E138">
         <v>15.5</v>
@@ -7507,7 +7840,7 @@
         <v>5378.5</v>
       </c>
       <c r="G138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7515,7 +7848,7 @@
         <v>2012</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E139">
         <v>1.7</v>
@@ -7525,7 +7858,7 @@
         <v>589.9</v>
       </c>
       <c r="G139" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -7536,14 +7869,14 @@
         <v>906</v>
       </c>
       <c r="D140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F140" s="5">
         <f>SUM(F141:F145)</f>
         <v>81177.600000000006</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7551,7 +7884,7 @@
         <v>2012</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E141">
         <v>51.3</v>
@@ -7561,7 +7894,7 @@
         <v>46477.799999999996</v>
       </c>
       <c r="G141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7569,7 +7902,7 @@
         <v>2012</v>
       </c>
       <c r="D142" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E142">
         <v>0.3</v>
@@ -7579,7 +7912,7 @@
         <v>271.8</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7587,7 +7920,7 @@
         <v>2012</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E143">
         <v>1.6</v>
@@ -7597,7 +7930,7 @@
         <v>1449.6000000000001</v>
       </c>
       <c r="G143" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7605,7 +7938,7 @@
         <v>2012</v>
       </c>
       <c r="D144" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E144">
         <v>32.799999999999997</v>
@@ -7615,7 +7948,7 @@
         <v>29716.799999999996</v>
       </c>
       <c r="G144" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7623,7 +7956,7 @@
         <v>2012</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E145">
         <v>3.6</v>
@@ -7633,7 +7966,7 @@
         <v>3261.6</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -7644,14 +7977,14 @@
         <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F146" s="5">
         <f>SUM(F147:F151)</f>
         <v>6364.8099999999995</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7659,7 +7992,7 @@
         <v>1998</v>
       </c>
       <c r="D147" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E147">
         <v>39.869999999999997</v>
@@ -7669,7 +8002,7 @@
         <v>5541.9299999999994</v>
       </c>
       <c r="G147" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7677,7 +8010,7 @@
         <v>1998</v>
       </c>
       <c r="D148" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7687,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7695,7 +8028,7 @@
         <v>1998</v>
       </c>
       <c r="D149" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E149">
         <v>0.22</v>
@@ -7705,7 +8038,7 @@
         <v>30.580000000000002</v>
       </c>
       <c r="G149" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7713,7 +8046,7 @@
         <v>1998</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E150">
         <v>4.8600000000000003</v>
@@ -7723,7 +8056,7 @@
         <v>675.54000000000008</v>
       </c>
       <c r="G150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7731,7 +8064,7 @@
         <v>1998</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E151">
         <v>0.84</v>
@@ -7741,7 +8074,7 @@
         <v>116.75999999999999</v>
       </c>
       <c r="G151" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -7752,14 +8085,14 @@
         <v>1974</v>
       </c>
       <c r="D152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F152" s="5">
         <f>SUM(F153:F157)</f>
         <v>74222.400000000009</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7767,7 +8100,7 @@
         <v>2012</v>
       </c>
       <c r="D153" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E153">
         <v>28</v>
@@ -7777,7 +8110,7 @@
         <v>55272</v>
       </c>
       <c r="G153" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7785,7 +8118,7 @@
         <v>2012</v>
       </c>
       <c r="D154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E154">
         <v>0.2</v>
@@ -7795,7 +8128,7 @@
         <v>394.8</v>
       </c>
       <c r="G154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7803,7 +8136,7 @@
         <v>2012</v>
       </c>
       <c r="D155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E155">
         <v>0.9</v>
@@ -7813,7 +8146,7 @@
         <v>1776.6000000000001</v>
       </c>
       <c r="G155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7821,7 +8154,7 @@
         <v>2012</v>
       </c>
       <c r="D156" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E156">
         <v>7.1</v>
@@ -7831,7 +8164,7 @@
         <v>14015.4</v>
       </c>
       <c r="G156" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7839,7 +8172,7 @@
         <v>2012</v>
       </c>
       <c r="D157" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E157">
         <v>1.4</v>
@@ -7849,7 +8182,7 @@
         <v>2763.6</v>
       </c>
       <c r="G157" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -7860,14 +8193,14 @@
         <v>657</v>
       </c>
       <c r="D158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F158" s="5">
         <f>SUM(F159:F163)</f>
         <v>49104.18</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7875,7 +8208,7 @@
         <v>1987</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E159">
         <v>64.099999999999994</v>
@@ -7885,7 +8218,7 @@
         <v>42113.7</v>
       </c>
       <c r="G159" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7893,7 +8226,7 @@
         <v>1987</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7903,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7911,7 +8244,7 @@
         <v>1987</v>
       </c>
       <c r="D161" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E161">
         <v>1.66</v>
@@ -7921,7 +8254,7 @@
         <v>1090.6199999999999</v>
       </c>
       <c r="G161" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7929,7 +8262,7 @@
         <v>1987</v>
       </c>
       <c r="D162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E162">
         <v>7.84</v>
@@ -7939,7 +8272,7 @@
         <v>5150.88</v>
       </c>
       <c r="G162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7947,7 +8280,7 @@
         <v>1987</v>
       </c>
       <c r="D163" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E163">
         <v>1.1399999999999999</v>
@@ -7957,7 +8290,7 @@
         <v>748.9799999999999</v>
       </c>
       <c r="G163" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -7968,14 +8301,14 @@
         <v>18</v>
       </c>
       <c r="D164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F164" s="5">
         <f>SUM(F165:F169)</f>
         <v>1256.76</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7983,7 +8316,7 @@
         <v>1996</v>
       </c>
       <c r="D165" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E165">
         <v>46.27</v>
@@ -7993,7 +8326,7 @@
         <v>832.86</v>
       </c>
       <c r="G165" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8001,7 +8334,7 @@
         <v>1996</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E166">
         <v>0.37</v>
@@ -8011,7 +8344,7 @@
         <v>6.66</v>
       </c>
       <c r="G166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8019,7 +8352,7 @@
         <v>1996</v>
       </c>
       <c r="D167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E167">
         <v>3.31</v>
@@ -8029,7 +8362,7 @@
         <v>59.58</v>
       </c>
       <c r="G167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8037,7 +8370,7 @@
         <v>1996</v>
       </c>
       <c r="D168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E168">
         <v>16.260000000000002</v>
@@ -8047,7 +8380,7 @@
         <v>292.68</v>
       </c>
       <c r="G168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8055,7 +8388,7 @@
         <v>1996</v>
       </c>
       <c r="D169" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E169">
         <v>3.61</v>
@@ -8065,7 +8398,7 @@
         <v>64.98</v>
       </c>
       <c r="G169" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -8076,14 +8409,14 @@
         <v>38</v>
       </c>
       <c r="D170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F170" s="5">
         <f>SUM(F171:F175)</f>
         <v>3279.4</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8091,7 +8424,7 @@
         <v>1987</v>
       </c>
       <c r="D171" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E171">
         <v>72.27</v>
@@ -8101,7 +8434,7 @@
         <v>2746.2599999999998</v>
       </c>
       <c r="G171" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8109,7 +8442,7 @@
         <v>1987</v>
       </c>
       <c r="D172" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -8119,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8127,7 +8460,7 @@
         <v>1987</v>
       </c>
       <c r="D173" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -8137,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8145,7 +8478,7 @@
         <v>1987</v>
       </c>
       <c r="D174" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E174">
         <v>11.64</v>
@@ -8155,7 +8488,7 @@
         <v>442.32000000000005</v>
       </c>
       <c r="G174" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8163,7 +8496,7 @@
         <v>1987</v>
       </c>
       <c r="D175" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E175">
         <v>2.39</v>
@@ -8173,7 +8506,7 @@
         <v>90.820000000000007</v>
       </c>
       <c r="G175" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -8184,14 +8517,14 @@
         <v>42</v>
       </c>
       <c r="D176" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F176" s="5">
         <f>SUM(F177:F181)</f>
         <v>5281.08</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8199,7 +8532,7 @@
         <v>1998</v>
       </c>
       <c r="D177" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E177">
         <v>89.62</v>
@@ -8209,7 +8542,7 @@
         <v>3764.04</v>
       </c>
       <c r="G177" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8217,7 +8550,7 @@
         <v>1998</v>
       </c>
       <c r="D178" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -8227,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8235,7 +8568,7 @@
         <v>1998</v>
       </c>
       <c r="D179" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E179">
         <v>0.38</v>
@@ -8245,7 +8578,7 @@
         <v>15.96</v>
       </c>
       <c r="G179" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8253,7 +8586,7 @@
         <v>1998</v>
       </c>
       <c r="D180" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E180">
         <v>25.68</v>
@@ -8263,7 +8596,7 @@
         <v>1078.56</v>
       </c>
       <c r="G180" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8271,7 +8604,7 @@
         <v>1998</v>
       </c>
       <c r="D181" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E181">
         <v>10.06</v>
@@ -8281,7 +8614,7 @@
         <v>422.52000000000004</v>
       </c>
       <c r="G181" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -8292,14 +8625,14 @@
         <v>970</v>
       </c>
       <c r="D182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F182" s="5">
         <f>SUM(F183:F187)</f>
         <v>60731.69999999999</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8307,7 +8640,7 @@
         <v>1997</v>
       </c>
       <c r="D183" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E183">
         <v>46.16</v>
@@ -8317,7 +8650,7 @@
         <v>44775.199999999997</v>
       </c>
       <c r="G183" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8325,7 +8658,7 @@
         <v>1997</v>
       </c>
       <c r="D184" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E184">
         <v>0.4</v>
@@ -8335,7 +8668,7 @@
         <v>388</v>
       </c>
       <c r="G184" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8343,7 +8676,7 @@
         <v>1997</v>
       </c>
       <c r="D185" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E185">
         <v>0.91</v>
@@ -8353,7 +8686,7 @@
         <v>882.7</v>
       </c>
       <c r="G185" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8361,7 +8694,7 @@
         <v>1997</v>
       </c>
       <c r="D186" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E186">
         <v>11.83</v>
@@ -8371,7 +8704,7 @@
         <v>11475.1</v>
       </c>
       <c r="G186" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8379,7 +8712,7 @@
         <v>1997</v>
       </c>
       <c r="D187" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E187">
         <v>3.31</v>
@@ -8389,7 +8722,7 @@
         <v>3210.7000000000003</v>
       </c>
       <c r="G187" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -8400,14 +8733,14 @@
         <v>201</v>
       </c>
       <c r="D188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F188" s="5">
         <f>SUM(F189:F193)</f>
         <v>16015.680000000002</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8415,7 +8748,7 @@
         <v>1998</v>
       </c>
       <c r="D189" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E189">
         <v>65.95</v>
@@ -8425,7 +8758,7 @@
         <v>13255.95</v>
       </c>
       <c r="G189" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8433,7 +8766,7 @@
         <v>1998</v>
       </c>
       <c r="D190" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E190">
         <v>0.18</v>
@@ -8443,7 +8776,7 @@
         <v>36.18</v>
       </c>
       <c r="G190" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8451,7 +8784,7 @@
         <v>1998</v>
       </c>
       <c r="D191" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E191">
         <v>2.95</v>
@@ -8461,7 +8794,7 @@
         <v>592.95000000000005</v>
       </c>
       <c r="G191" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8469,7 +8802,7 @@
         <v>1998</v>
       </c>
       <c r="D192" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E192">
         <v>7.99</v>
@@ -8479,7 +8812,7 @@
         <v>1605.99</v>
       </c>
       <c r="G192" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8487,7 +8820,7 @@
         <v>1998</v>
       </c>
       <c r="D193" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E193">
         <v>2.61</v>
@@ -8497,7 +8830,7 @@
         <v>524.61</v>
       </c>
       <c r="G193" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -8508,14 +8841,14 @@
         <v>340</v>
       </c>
       <c r="D194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F194" s="5">
         <f>SUM(F195:F199)</f>
         <v>20774</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8523,7 +8856,7 @@
         <v>2012</v>
       </c>
       <c r="D195" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E195">
         <v>51</v>
@@ -8533,7 +8866,7 @@
         <v>17340</v>
       </c>
       <c r="G195" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8541,7 +8874,7 @@
         <v>2012</v>
       </c>
       <c r="D196" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8551,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8559,7 +8892,7 @@
         <v>2012</v>
       </c>
       <c r="D197" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E197">
         <v>0.4</v>
@@ -8569,7 +8902,7 @@
         <v>136</v>
       </c>
       <c r="G197" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8577,7 +8910,7 @@
         <v>2012</v>
       </c>
       <c r="D198" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E198">
         <v>9.1999999999999993</v>
@@ -8587,7 +8920,7 @@
         <v>3127.9999999999995</v>
       </c>
       <c r="G198" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8595,7 +8928,7 @@
         <v>2012</v>
       </c>
       <c r="D199" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E199">
         <v>0.5</v>
@@ -8605,7 +8938,7 @@
         <v>170</v>
       </c>
       <c r="G199" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
+++ b/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariegutgesell/Desktop/Wild Foods Repo/data/Foods_From_Forests_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96811A3-8589-9544-A936-236CA2EEA65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917BD3FF-D7AF-734C-8FA3-09F7645F85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21140" windowHeight="16520" activeTab="6" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21140" windowHeight="16480" activeTab="6" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
   </bookViews>
   <sheets>
     <sheet name="Anadromous" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="110">
   <si>
     <t>Nearshore</t>
   </si>
@@ -355,6 +355,27 @@
   </si>
   <si>
     <t>Resource_Name</t>
+  </si>
+  <si>
+    <t>Herring Roe</t>
+  </si>
+  <si>
+    <t>Mollusc</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Non-halibut fish</t>
+  </si>
+  <si>
+    <t>Marine Invertebrates</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,6 +494,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1729,7 +1751,7 @@
         <v>340</v>
       </c>
       <c r="E2">
-        <f>D2*C2</f>
+        <f t="shared" ref="E2:E34" si="0">D2*C2</f>
         <v>12851.999999999998</v>
       </c>
     </row>
@@ -1747,7 +1769,7 @@
         <v>201</v>
       </c>
       <c r="E3">
-        <f>D3*C3</f>
+        <f t="shared" si="0"/>
         <v>15269.97</v>
       </c>
     </row>
@@ -1765,7 +1787,7 @@
         <v>970</v>
       </c>
       <c r="E4">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>69131.899999999994</v>
       </c>
     </row>
@@ -1783,7 +1805,7 @@
         <v>42</v>
       </c>
       <c r="E5">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>2538.8999999999996</v>
       </c>
     </row>
@@ -1801,7 +1823,7 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>3464.46</v>
       </c>
     </row>
@@ -1819,7 +1841,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>790.37999999999988</v>
       </c>
     </row>
@@ -1837,7 +1859,7 @@
         <v>657</v>
       </c>
       <c r="E8">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>45109.619999999995</v>
       </c>
     </row>
@@ -1855,7 +1877,7 @@
         <v>1974</v>
       </c>
       <c r="E9">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>127520.40000000002</v>
       </c>
     </row>
@@ -1873,7 +1895,7 @@
         <v>139</v>
       </c>
       <c r="E10">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>6017.3099999999995</v>
       </c>
       <c r="H10" s="8"/>
@@ -1893,7 +1915,7 @@
         <v>906</v>
       </c>
       <c r="E11">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>68946.600000000006</v>
       </c>
       <c r="H11" s="8"/>
@@ -1913,7 +1935,7 @@
         <v>347</v>
       </c>
       <c r="E12">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>75784.800000000003</v>
       </c>
       <c r="H12" s="8"/>
@@ -1933,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="E13">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>6671.38</v>
       </c>
       <c r="H13" s="8"/>
@@ -1953,7 +1975,7 @@
         <v>530</v>
       </c>
       <c r="E14">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>24311.100000000002</v>
       </c>
       <c r="H14" s="8"/>
@@ -1973,7 +1995,7 @@
         <v>49</v>
       </c>
       <c r="E15">
-        <f>D15*C15</f>
+        <f t="shared" si="0"/>
         <v>4773.58</v>
       </c>
       <c r="H15" s="8"/>
@@ -1993,7 +2015,7 @@
         <v>691</v>
       </c>
       <c r="E16">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>77495.649999999994</v>
       </c>
       <c r="H16" s="8"/>
@@ -2013,7 +2035,7 @@
         <v>86</v>
       </c>
       <c r="E17">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>33809.309860000001</v>
       </c>
       <c r="H17" s="8"/>
@@ -2033,7 +2055,7 @@
         <v>1436</v>
       </c>
       <c r="E18">
-        <f>D18*C18</f>
+        <f t="shared" si="0"/>
         <v>31821.759999999998</v>
       </c>
       <c r="H18" s="8"/>
@@ -2053,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f>D19*C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -2073,7 +2095,7 @@
         <v>131</v>
       </c>
       <c r="E20">
-        <f>D20*C20</f>
+        <f t="shared" si="0"/>
         <v>7557.39</v>
       </c>
       <c r="H20" s="8"/>
@@ -2093,7 +2115,7 @@
         <v>71</v>
       </c>
       <c r="E21">
-        <f>D21*C21</f>
+        <f t="shared" si="0"/>
         <v>6102.45</v>
       </c>
     </row>
@@ -2111,7 +2133,7 @@
         <v>2822</v>
       </c>
       <c r="E22">
-        <f>D22*C22</f>
+        <f t="shared" si="0"/>
         <v>180302.42610772001</v>
       </c>
       <c r="H22" s="8"/>
@@ -2131,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f>D23*C23</f>
+        <f t="shared" si="0"/>
         <v>989.09999999999991</v>
       </c>
       <c r="H23" s="8"/>
@@ -2151,7 +2173,7 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <f>D24*C24</f>
+        <f t="shared" si="0"/>
         <v>4436.88</v>
       </c>
       <c r="H24" s="8"/>
@@ -2171,7 +2193,7 @@
         <v>33</v>
       </c>
       <c r="E25">
-        <f>D25*C25</f>
+        <f t="shared" si="0"/>
         <v>2591.8200000000006</v>
       </c>
     </row>
@@ -2189,7 +2211,7 @@
         <v>356</v>
       </c>
       <c r="E26">
-        <f>D26*C26</f>
+        <f t="shared" si="0"/>
         <v>30589.828161599999</v>
       </c>
       <c r="H26" s="8"/>
@@ -2209,7 +2231,7 @@
         <v>7971</v>
       </c>
       <c r="E27">
-        <f>D27*C27</f>
+        <f t="shared" si="0"/>
         <v>376593.93015932996</v>
       </c>
       <c r="H27" s="8"/>
@@ -2229,7 +2251,7 @@
         <v>1042</v>
       </c>
       <c r="E28">
-        <f>D28*C28</f>
+        <f t="shared" si="0"/>
         <v>24216.080000000002</v>
       </c>
       <c r="H28" s="8"/>
@@ -2249,7 +2271,7 @@
         <v>126</v>
       </c>
       <c r="E29">
-        <f>D29*C29</f>
+        <f t="shared" si="0"/>
         <v>7910.28</v>
       </c>
       <c r="H29" s="8"/>
@@ -2269,7 +2291,7 @@
         <v>449</v>
       </c>
       <c r="E30">
-        <f>D30*C30</f>
+        <f t="shared" si="0"/>
         <v>31156.11</v>
       </c>
       <c r="H30" s="8"/>
@@ -2289,7 +2311,7 @@
         <v>2059</v>
       </c>
       <c r="E31">
-        <f>D31*C31</f>
+        <f t="shared" si="0"/>
         <v>66876.761655499999</v>
       </c>
       <c r="H31" s="8"/>
@@ -2309,7 +2331,7 @@
         <v>84</v>
       </c>
       <c r="E32">
-        <f>D32*C32</f>
+        <f t="shared" si="0"/>
         <v>4947.5999999999995</v>
       </c>
       <c r="H32" s="8"/>
@@ -2329,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <f>D33*C33</f>
+        <f t="shared" si="0"/>
         <v>58.26</v>
       </c>
       <c r="H33" s="8"/>
@@ -2349,7 +2371,7 @@
         <v>629</v>
       </c>
       <c r="E34">
-        <f>D34*C34</f>
+        <f t="shared" si="0"/>
         <v>62152.702334600013</v>
       </c>
     </row>
@@ -4944,339 +4966,462 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98C8E8-8A1F-7B41-A4C8-235CE5DB550D}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
         <v>77</v>
       </c>
     </row>

--- a/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
+++ b/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariegutgesell/Desktop/Wild Foods Repo/data/Foods_From_Forests_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917BD3FF-D7AF-734C-8FA3-09F7645F85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C04CA2-9B3C-1946-A291-A05F5187B4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21140" windowHeight="16480" activeTab="6" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
   </bookViews>
@@ -4969,10 +4969,13 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
+++ b/data/Foods_From_Forests_data/Copy of Southeast harvest summary_mg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariegutgesell/Desktop/Wild Foods Repo/data/Foods_From_Forests_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903AB78-2885-7A49-8C76-E946FF10FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8749AE2-C962-0D46-B822-46293B50EFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33400" yWindow="500" windowWidth="32400" windowHeight="20060" activeTab="7" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
+    <workbookView xWindow="5560" yWindow="620" windowWidth="23240" windowHeight="16480" activeTab="7" xr2:uid="{31312463-82D5-4964-87E9-66FCD054679B}"/>
   </bookViews>
   <sheets>
     <sheet name="Anadromous" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Full_Sp_List!$A$1:$H$1152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Resource_List!$A$1:$J$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -11316,7 +11317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA01B77-1536-4C70-86D4-A1F20DBA7FD4}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -32392,13 +32393,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98C8E8-8A1F-7B41-A4C8-235CE5DB550D}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="12" max="12" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33153,6 +33155,7 @@
       <c r="C54" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J54" xr:uid="{3B98C8E8-8A1F-7B41-A4C8-235CE5DB550D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
     <sortCondition ref="A2:A41"/>
     <sortCondition ref="C2:C41"/>
